--- a/biology/Botanique/Huile_de_graines_de_courge/Huile_de_graines_de_courge.xlsx
+++ b/biology/Botanique/Huile_de_graines_de_courge/Huile_de_graines_de_courge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’huile de graines de courge (souvent improprement appelée huile de pépins de courge) est une huile alimentaire extraite par pression à froid de graines de courge rôties. 
 La variété employée est la courge à huile de Styrie (en allemand : Steirischen Ölkürbis, de nom latin : Cucurbita pepo var. styriaca). C'est une spécialité de la Styrie, un des länder autrichiens. Sa robe est d'un vert très profond (une teinte tirant vers le rouge trahit une pression à chaud). Elle accompagne traditionnellement la salade de mâche (avec du vinaigre de cidre) et rehausse de ses arômes de noix le velouté au potimarron. Elle ne se prête pas à la friture et se consomme froide. Dans les pays germaniques, beaucoup d'hommes en consomment pour se protéger du risque de cancer de la prostate. Il existe même des glaces à l'huile de graines de courge.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette huile a été produite pour la première fois en 1735 en Styrie, dans le sud de l'Autriche. Jusque dans les années 1970, son utilisation se limitait à cette région[réf. nécessaire]. Encore très utilisée dans en Autriche[1], elle est aujourd'hui aussi utilisée aujourd'hui dans la cuisine russe, slovène, croate et hongroise[réf. nécessaire].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette huile a été produite pour la première fois en 1735 en Styrie, dans le sud de l'Autriche. Jusque dans les années 1970, son utilisation se limitait à cette région[réf. nécessaire]. Encore très utilisée dans en Autriche, elle est aujourd'hui aussi utilisée aujourd'hui dans la cuisine russe, slovène, croate et hongroise[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acides gras en pourcentage :
 Acide palmitique C16:0 6.0 à 13.0
@@ -579,7 +595,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Aspect : liquide
 Couleur : marron brun
@@ -611,7 +629,9 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’huile de graines de courge contient 50 % d’acide linoléique et 12 % d’acide alpha-linolénique, deux acides gras essentiels. 
 Elle contient également des vitamines, des minéraux et des stérols.
@@ -643,10 +663,12 @@
           <t>IGP</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’huile de pépins de courge de Styrie IGP « steirisches Kürbiskernöl g.g.A.» figure depuis 1996 sur la
-liste des produits bénéficiant d’une indication géographique protégée[2].
+liste des produits bénéficiant d’une indication géographique protégée.
 </t>
         </is>
       </c>
